--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>2.075282223533333</v>
+        <v>1.27089160055</v>
       </c>
       <c r="R2">
-        <v>18.6775400118</v>
+        <v>11.43802440495</v>
       </c>
       <c r="S2">
-        <v>0.0002705507263004269</v>
+        <v>0.0001366788462989678</v>
       </c>
       <c r="T2">
-        <v>0.0002705507263004269</v>
+        <v>0.0001366788462989678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H3">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>13.76414861771911</v>
+        <v>131.0088750964038</v>
       </c>
       <c r="R3">
-        <v>123.877337559472</v>
+        <v>1179.079875867634</v>
       </c>
       <c r="S3">
-        <v>0.001794406738130626</v>
+        <v>0.01408943287952556</v>
       </c>
       <c r="T3">
-        <v>0.001794406738130627</v>
+        <v>0.01408943287952556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H4">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>6.117843926168666</v>
+        <v>2.863722906893333</v>
       </c>
       <c r="R4">
-        <v>55.06059533551799</v>
+        <v>25.77350616204</v>
       </c>
       <c r="S4">
-        <v>0.0007975720597652013</v>
+        <v>0.000307980903221579</v>
       </c>
       <c r="T4">
-        <v>0.0007975720597652017</v>
+        <v>0.0003079809032215789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I5">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J5">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>305.0643189883999</v>
+        <v>24.6712582083</v>
       </c>
       <c r="R5">
-        <v>2745.5788708956</v>
+        <v>222.0413238747</v>
       </c>
       <c r="S5">
-        <v>0.03977067414480796</v>
+        <v>0.002653286171059022</v>
       </c>
       <c r="T5">
-        <v>0.03977067414480797</v>
+        <v>0.002653286171059023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J6">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>2023.315468568203</v>
+        <v>2543.217520427022</v>
       </c>
       <c r="R6">
-        <v>18209.83921711382</v>
+        <v>22888.9576838432</v>
       </c>
       <c r="S6">
-        <v>0.2637759160409554</v>
+        <v>0.2735119473831248</v>
       </c>
       <c r="T6">
-        <v>0.2637759160409555</v>
+        <v>0.2735119473831248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J7">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>899.3166663550838</v>
+        <v>55.59218995736</v>
       </c>
       <c r="R7">
-        <v>8093.849997195755</v>
+        <v>500.32970961624</v>
       </c>
       <c r="S7">
-        <v>0.1172422596297243</v>
+        <v>0.005978697461936756</v>
       </c>
       <c r="T7">
-        <v>0.1172422596297243</v>
+        <v>0.005978697461936756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H8">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>226.3414598071333</v>
+        <v>31.385589293575</v>
       </c>
       <c r="R8">
-        <v>2037.0731382642</v>
+        <v>282.4703036421751</v>
       </c>
       <c r="S8">
-        <v>0.02950771979266425</v>
+        <v>0.003375383182328536</v>
       </c>
       <c r="T8">
-        <v>0.02950771979266425</v>
+        <v>0.003375383182328536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H9">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>1501.19220210573</v>
+        <v>3235.359133548091</v>
       </c>
       <c r="R9">
-        <v>13510.72981895157</v>
+        <v>29118.23220193282</v>
       </c>
       <c r="S9">
-        <v>0.1957076661625049</v>
+        <v>0.3479487578207373</v>
       </c>
       <c r="T9">
-        <v>0.1957076661625049</v>
+        <v>0.3479487578207373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H10">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>667.2450182528047</v>
+        <v>70.72171298280668</v>
       </c>
       <c r="R10">
-        <v>6005.205164275242</v>
+        <v>636.4954168452601</v>
       </c>
       <c r="S10">
-        <v>0.08698750572887483</v>
+        <v>0.007605811647974975</v>
       </c>
       <c r="T10">
-        <v>0.08698750572887484</v>
+        <v>0.007605811647974974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H11">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I11">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J11">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>5.353135411533334</v>
+        <v>0.7110591848249999</v>
       </c>
       <c r="R11">
-        <v>48.1782187038</v>
+        <v>6.399532663425</v>
       </c>
       <c r="S11">
-        <v>0.0006978784172829471</v>
+        <v>7.647131273045337E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006978784172829473</v>
+        <v>7.647131273045337E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H12">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I12">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J12">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>35.50425601857245</v>
+        <v>73.29898465815232</v>
       </c>
       <c r="R12">
-        <v>319.538304167152</v>
+        <v>659.6908619233709</v>
       </c>
       <c r="S12">
-        <v>0.004628624552195414</v>
+        <v>0.007882985971129524</v>
       </c>
       <c r="T12">
-        <v>0.004628624552195415</v>
+        <v>0.007882985971129524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H13">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I13">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J13">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>15.78081602204867</v>
+        <v>1.60224245314</v>
       </c>
       <c r="R13">
-        <v>142.027344198438</v>
+        <v>14.42018207826</v>
       </c>
       <c r="S13">
-        <v>0.002057315958264942</v>
+        <v>0.0001723141846964999</v>
       </c>
       <c r="T13">
-        <v>0.002057315958264943</v>
+        <v>0.0001723141846964999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H14">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>106.4428040407333</v>
+        <v>6.418751945374999</v>
       </c>
       <c r="R14">
-        <v>957.9852363666</v>
+        <v>57.768767508375</v>
       </c>
       <c r="S14">
-        <v>0.01387675257664147</v>
+        <v>0.0006903087644874197</v>
       </c>
       <c r="T14">
-        <v>0.01387675257664147</v>
+        <v>0.0006903087644874199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H15">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>705.9736538430739</v>
+        <v>661.6720666990893</v>
       </c>
       <c r="R15">
-        <v>6353.762884587665</v>
+        <v>5955.048600291804</v>
       </c>
       <c r="S15">
-        <v>0.09203648671505228</v>
+        <v>0.07115994366911167</v>
       </c>
       <c r="T15">
-        <v>0.09203648671505231</v>
+        <v>0.07115994366911169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H16">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>313.7888691959407</v>
+        <v>14.46348923203333</v>
       </c>
       <c r="R16">
-        <v>2824.099822763466</v>
+        <v>130.1714030883</v>
       </c>
       <c r="S16">
-        <v>0.0409080777078163</v>
+        <v>0.001555485157692712</v>
       </c>
       <c r="T16">
-        <v>0.04090807770781631</v>
+        <v>0.001555485157692712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H17">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>79.70494503926665</v>
+        <v>22.9845511071</v>
       </c>
       <c r="R17">
-        <v>717.3445053533999</v>
+        <v>206.8609599639</v>
       </c>
       <c r="S17">
-        <v>0.01039098707904623</v>
+        <v>0.002471888182012181</v>
       </c>
       <c r="T17">
-        <v>0.01039098707904623</v>
+        <v>0.002471888182012181</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H18">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>528.6368748534595</v>
+        <v>2369.344626901172</v>
       </c>
       <c r="R18">
-        <v>4757.731873681136</v>
+        <v>21324.10164211055</v>
       </c>
       <c r="S18">
-        <v>0.06891741702354254</v>
+        <v>0.2548126763520692</v>
       </c>
       <c r="T18">
-        <v>0.06891741702354254</v>
+        <v>0.2548126763520692</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H19">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>234.9667955348593</v>
+        <v>51.79150250232001</v>
       </c>
       <c r="R19">
-        <v>2114.701159813734</v>
+        <v>466.12352252088</v>
       </c>
       <c r="S19">
-        <v>0.03063218894642982</v>
+        <v>0.005569950109862815</v>
       </c>
       <c r="T19">
-        <v>0.03063218894642983</v>
+        <v>0.005569950109862814</v>
       </c>
     </row>
   </sheetData>
